--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\excel-poi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4234A-0464-4F0C-B927-DF26AECF86A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34FF00-A3DE-4BC6-BEA2-CB4A5E180D50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>${address}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${picture}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,6 +512,69 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,12 +593,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -575,63 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,137 +1088,137 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="A12:I12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="68"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
         <v>9</v>
@@ -1271,17 +1275,19 @@
       <c r="D12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
@@ -1317,10 +1323,10 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1344,11 +1350,11 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="s">
         <v>23</v>
@@ -1356,28 +1362,28 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="46"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
@@ -1396,17 +1402,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -1418,6 +1413,17 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="E6:I9"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\excel-poi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34FF00-A3DE-4BC6-BEA2-CB4A5E180D50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72A566-3FED-41F4-8C14-A02EADE2B6D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">项目名称：   </t>
   </si>
   <si>
-    <t>监测点位示意图后附</t>
-  </si>
-  <si>
     <t>监测项目：</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   <si>
     <t>${picture}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${picture}</t>
   </si>
 </sst>
 </file>
@@ -512,6 +512,93 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,93 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,195 +1088,195 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="D12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -1284,10 +1284,10 @@
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="61"/>
+      <c r="A13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
@@ -1313,20 +1313,20 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1350,40 +1350,40 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="D18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="65"/>
+      <c r="A19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
@@ -1391,17 +1391,28 @@
       <c r="C21" s="10"/>
       <c r="D21" s="14"/>
       <c r="E21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -1413,17 +1424,6 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="E6:I9"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
